--- a/public/temp/evaluation_report_17_03_2025_hieunguyen.xlsx
+++ b/public/temp/evaluation_report_17_03_2025_hieunguyen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>CỤC HẢI QUAN TỈNH HÀ TĨNH</t>
   </si>
@@ -38,7 +38,7 @@
     <t>1. Họ và tên: Nguyễn Hiếu</t>
   </si>
   <si>
-    <t>2. Vị trí, đơn vị công tác: Văn phòng - Hải quan cửa khẩu quốc tế Cầu Treo</t>
+    <t>2. Vị trí, đơn vị công tác: Văn phòng - Chi cục Hải quan khu vực IX</t>
   </si>
   <si>
     <t>3. Số ngày làm việc theo quy định của pháp luật lao động trong tháng: 0</t>
@@ -89,6 +89,9 @@
     <t>Lãnh đạo trực tiếp đánh giá</t>
   </si>
   <si>
+    <t>Điểm</t>
+  </si>
+  <si>
     <t>Tên lãnh đạo trực tiếp đánh giá</t>
   </si>
   <si>
@@ -101,6 +104,30 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>Đánh máy</t>
+  </si>
+  <si>
+    <t>16/03/2025</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>update...</t>
+  </si>
+  <si>
+    <t>Vượt tiến độ hoặc có chất lượng hoặc hiệu quả cao</t>
+  </si>
+  <si>
+    <t>Chưa đảm bảo về yêu cầu và chất lượng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t>Chan Dan</t>
+  </si>
+  <si>
     <t>Họp chi bộ</t>
   </si>
   <si>
@@ -110,10 +137,7 @@
     <t>Công văn 322</t>
   </si>
   <si>
-    <t>Vượt tiến độ hoặc có chất lượng hoặc hiệu quả cao</t>
-  </si>
-  <si>
-    <t>Chan Dan</t>
+    <t>Đúng tiến độ, đảm bảo chất lượng và hiệu quả</t>
   </si>
   <si>
     <t>10. Kết quả xếp loại chất lượng tháng:</t>
@@ -505,10 +529,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15:M16"/>
+      <selection activeCell="A15" sqref="A15:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,64 +550,66 @@
     <col min="11" max="11" width="30" customWidth="true" style="0"/>
     <col min="12" max="12" width="20" customWidth="true" style="0"/>
     <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -594,12 +620,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -637,52 +663,109 @@
         <v>26</v>
       </c>
       <c r="M15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M16" s="5">
+        <v>70</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="5">
+        <v>100</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
